--- a/va_facility_data_2025-02-20/Tilton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tilton%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Tilton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tilton%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R67c5301f070f4a57b37091dbd7f9b81d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6aca38260e744c428c7bc7629051a48f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7b2165e9025243c0b0f0b2b14ef9704d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R53e9708b7d784654a901173029e70041"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R123d16fefa154533acfafbe2401cd197"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdfe007a3dfe84a1cb6775354e18d5b56"/>
   </x:sheets>
 </x:workbook>
 </file>
